--- a/biology/Botanique/National_Plant_Germplasm_System/National_Plant_Germplasm_System.xlsx
+++ b/biology/Botanique/National_Plant_Germplasm_System/National_Plant_Germplasm_System.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le National Plant Germplasm System (NPGS, système national de germoplasme végétal) est une organisation coopérative américaine mise en place par l'État et le gouvernement fédéral et des organismes privés pour préserver la diversité génétique des plantes.
 Le NPGS aide les scientifiques et pourvoit au besoin de diversité génétique en acquérant du germoplasme de plantes cultivées, en le conservant, l'évaluant, le documentant et le distribuant.
